--- a/biology/Botanique/Jaunisse_apicale_du_pois/Jaunisse_apicale_du_pois.xlsx
+++ b/biology/Botanique/Jaunisse_apicale_du_pois/Jaunisse_apicale_du_pois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La jaunisse apicale du pois est une maladie virale causée par un Luteovirus  (famille des  Luteoviridae) qui affecte les cultures de pois et de fève. La maladie, transmise par des pucerons se manifeste par un jaunissement des extrémités de la plante et un arrêt de la croissance.
  Portail de l’agriculture et l’agronomie   Portail de la protection des cultures   Portail des Fabaceae                   </t>
